--- a/pallet_table.xlsx
+++ b/pallet_table.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$D$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="589">
   <si>
     <t>Товар</t>
   </si>
@@ -74,12 +74,6 @@
     <t>Мороженица HOMECLUB GT-FM1003 д/сорбетов (Китай)</t>
   </si>
   <si>
-    <t>690101469413</t>
-  </si>
-  <si>
-    <t>Блендер SCARLETT SC-HB42F30 (Китай)</t>
-  </si>
-  <si>
     <t>690304471357</t>
   </si>
   <si>
@@ -116,12 +110,6 @@
     <t>Чайник POLARIS металл.PWK 1772CA (Китай)</t>
   </si>
   <si>
-    <t>690102515251</t>
-  </si>
-  <si>
-    <t>Блендер SINBO Стационарный SHB 3175 (Китай)</t>
-  </si>
-  <si>
     <t>690501516294</t>
   </si>
   <si>
@@ -269,12 +257,6 @@
     <t>Сушилка BOULLE д/овощей и фруктов BFD-700 (Россия)</t>
   </si>
   <si>
-    <t>690207375642</t>
-  </si>
-  <si>
-    <t>Чайник HOMECLUB металлический SK-781W (Китай)</t>
-  </si>
-  <si>
     <t>690411437982</t>
   </si>
   <si>
@@ -293,12 +275,6 @@
     <t>Акустическая система LENTEL с микроф.AP-M173 (Китай)</t>
   </si>
   <si>
-    <t>690206476327</t>
-  </si>
-  <si>
-    <t>Чайник SCARLETT пластиковый SC-EK18P47,Ягоды (Китай)</t>
-  </si>
-  <si>
     <t>690207487564</t>
   </si>
   <si>
@@ -449,12 +425,6 @@
     <t>Сушилка ОТЛИЧНАЯ ЦЕНА электрическая д/овощей и фруктов FD0117 (Россия)</t>
   </si>
   <si>
-    <t>690303479128</t>
-  </si>
-  <si>
-    <t>Йогуртница SCARLETT SC-YM141P01 (Китай)</t>
-  </si>
-  <si>
     <t>690301493858</t>
   </si>
   <si>
@@ -755,12 +725,6 @@
     <t>Утюг POLARIS PIR 2481K (Китай)</t>
   </si>
   <si>
-    <t>690208517557</t>
-  </si>
-  <si>
-    <t>Чайник SCARLETT стеклянный SC - EK27G83 (Китай)</t>
-  </si>
-  <si>
     <t>690304543076</t>
   </si>
   <si>
@@ -998,12 +962,6 @@
     <t>Конвектор HOMECLUB Арт. PH80A-2000 (Китай)</t>
   </si>
   <si>
-    <t>670302472838</t>
-  </si>
-  <si>
-    <t>Акустическая система LENTEL AP-1602 (Китай)</t>
-  </si>
-  <si>
     <t>690207493258</t>
   </si>
   <si>
@@ -1034,18 +992,6 @@
     <t>Удлинитель сетевой HOME CLUB S 3x3-Z 3р3м,с/з,б/выкл 10А (Китай)</t>
   </si>
   <si>
-    <t>690207533358</t>
-  </si>
-  <si>
-    <t>Чайник ECON метал.ECO-1885KE/1886KE/1887KE (Китай)</t>
-  </si>
-  <si>
-    <t>690302546164</t>
-  </si>
-  <si>
-    <t>Электрогриль TEFAL GC242832 (Китай)</t>
-  </si>
-  <si>
     <t>690207551041</t>
   </si>
   <si>
@@ -1196,9 +1142,6 @@
     <t>Блинница HOMECLUB 2-в-1  CM-02 (Китай)</t>
   </si>
   <si>
-    <t>690306483897</t>
-  </si>
-  <si>
     <t>Мультиварка REDMOND SkyCooker RMC-M227S (Китай)</t>
   </si>
   <si>
@@ -1232,18 +1175,6 @@
     <t>Термометр электронный Арт. SC-001 (Китай)</t>
   </si>
   <si>
-    <t>690602434307</t>
-  </si>
-  <si>
-    <t>Тепловентилятор ОЦ/365 ДНЕЙ 2000Вт FH103A/FH103A-S (Китай)</t>
-  </si>
-  <si>
-    <t>690404438002</t>
-  </si>
-  <si>
-    <t>Машинка д/стрижки ОТЛИЧНАЯ ЦЕНА/365 ДНЕЙ GT-4608 (Китай)</t>
-  </si>
-  <si>
     <t>690101484040</t>
   </si>
   <si>
@@ -1262,24 +1193,6 @@
     <t>СВЧ-печь NATIONAL NK-MW220M18/NK-MW220M20 (Китай)</t>
   </si>
   <si>
-    <t>670201543725</t>
-  </si>
-  <si>
-    <t>Телевизор LENTEL 24LT2020 (Китай)</t>
-  </si>
-  <si>
-    <t>670201543740</t>
-  </si>
-  <si>
-    <t>Телевизор LENTEL 32LT2020 (Китай)</t>
-  </si>
-  <si>
-    <t>670201547709</t>
-  </si>
-  <si>
-    <t>Телевизор ECON EX-22FT005B (Россия)</t>
-  </si>
-  <si>
     <t>690401549393</t>
   </si>
   <si>
@@ -1808,24 +1721,12 @@
     <t>Фен SCARLETT SC-HD70T24/T23 (Китай)</t>
   </si>
   <si>
-    <t>690502549457</t>
-  </si>
-  <si>
-    <t>Пылесос HYUNDAI H-VCC03 (Китай)</t>
-  </si>
-  <si>
     <t>690301386981</t>
   </si>
   <si>
     <t>Мультипекарь REDMOND RMB-M603/RMB-616/3 (Китай)</t>
   </si>
   <si>
-    <t>690504553141</t>
-  </si>
-  <si>
-    <t>Утюг SCARLETT SC-SI30K43 (Китай)</t>
-  </si>
-  <si>
     <t>690410367187</t>
   </si>
   <si>
@@ -1862,24 +1763,12 @@
     <t>Вентиляторы POLARIS напольный PSF 40V/40Е (Китай)</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>690508058204</t>
   </si>
   <si>
     <t>Сушилка д/обуви ТИМСОН противогрибковая  (Россия)</t>
   </si>
   <si>
-    <t>чайник home club hhb1805</t>
-  </si>
-  <si>
-    <t>redmond робот полисос</t>
-  </si>
-  <si>
-    <t>2 коробки</t>
-  </si>
-  <si>
     <t>палет 35 стоит на складе для переформирования + там замиксованы  econ блендеры и все что было с ними в палете</t>
   </si>
   <si>
@@ -1893,6 +1782,18 @@
   </si>
   <si>
     <t>Кофеварка SCARLETT SC-CM33017 RN (Китай)</t>
+  </si>
+  <si>
+    <t>Пылесос-робот REDMOND RV-R165 (Китай)</t>
+  </si>
+  <si>
+    <t>Чайник стеклянный HOMECLUB стеклянный HHB1805 (Китай)</t>
+  </si>
+  <si>
+    <t>Расформирован - пересобран с палетом 3</t>
+  </si>
+  <si>
+    <t>расформирован</t>
   </si>
 </sst>
 </file>
@@ -1952,7 +1853,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1986,12 +1887,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2092,9 +1987,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2102,25 +1994,15 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2132,6 +2014,15 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2412,11 +2303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I886"/>
+  <dimension ref="A1:I863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,7 +2320,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2442,148 +2332,145 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="25">
-        <v>0</v>
-      </c>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="25">
-        <v>0</v>
-      </c>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="25">
-        <v>0</v>
-      </c>
-      <c r="E4" s="24"/>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3">
-        <v>6</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2591,184 +2478,184 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4</v>
+      </c>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="3">
-        <v>6</v>
-      </c>
-      <c r="E20" s="23"/>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="3">
-        <v>6</v>
-      </c>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="3">
-        <v>6</v>
-      </c>
-      <c r="E22" s="23"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3">
         <v>4</v>
       </c>
-      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
@@ -2781,7 +2668,7 @@
         <v>49</v>
       </c>
       <c r="D26" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2795,7 +2682,7 @@
         <v>51</v>
       </c>
       <c r="D27" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2809,7 +2696,7 @@
         <v>53</v>
       </c>
       <c r="D28" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2817,10 +2704,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D29" s="3">
         <v>5</v>
@@ -2831,168 +2718,168 @@
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D30" s="3">
-        <v>13</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D31" s="3">
-        <v>12</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>2</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="3">
-        <v>5</v>
-      </c>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>2</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="3">
-        <v>2</v>
-      </c>
-      <c r="E33" s="23"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D34" s="3">
+        <v>6</v>
+      </c>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>3</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="3">
         <v>8</v>
       </c>
-      <c r="E34" s="23"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="A36" s="6">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>3</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D37" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>3</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="3">
-        <v>6</v>
-      </c>
-      <c r="E38" s="23"/>
+      <c r="B38" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="D38" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>3</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="3">
-        <v>8</v>
+      <c r="B39" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="D39" s="15">
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>3</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="3">
-        <v>6</v>
+      <c r="B40" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="D40" s="15">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>3</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="3">
-        <v>12</v>
+      <c r="B41" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D41" s="15">
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>3</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="3">
-        <v>4</v>
+      <c r="B42" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="D42" s="19">
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3012,10 +2899,10 @@
         <v>4</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D45" s="3">
         <v>12</v>
@@ -3026,10 +2913,10 @@
         <v>4</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D46" s="3">
         <v>20</v>
@@ -3040,10 +2927,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D47" s="3">
         <v>6</v>
@@ -3054,10 +2941,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D48" s="3">
         <v>8</v>
@@ -3068,10 +2955,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D49" s="3">
         <v>6</v>
@@ -3082,10 +2969,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D50" s="3">
         <v>12</v>
@@ -3096,10 +2983,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D51" s="3">
         <v>4</v>
@@ -3122,10 +3009,10 @@
         <v>5</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>607</v>
+        <v>574</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>608</v>
+        <v>575</v>
       </c>
       <c r="D54" s="12">
         <v>14</v>
@@ -3136,10 +3023,10 @@
         <v>5</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>609</v>
+        <v>576</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="D55" s="12">
         <v>26</v>
@@ -3162,10 +3049,10 @@
         <v>6</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D58" s="3">
         <v>38</v>
@@ -3188,28 +3075,27 @@
         <v>7</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D61" s="25">
-        <v>0</v>
-      </c>
-      <c r="E61" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="D61" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>7</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D62" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3217,13 +3103,13 @@
         <v>7</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D63" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3231,326 +3117,310 @@
         <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D64" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E64" s="21"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>7</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D65" s="25">
-        <v>0</v>
-      </c>
-      <c r="E65" s="23"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="D65" s="3">
+        <v>4</v>
+      </c>
+      <c r="E65" s="21"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>7</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D66" s="3">
-        <v>10</v>
-      </c>
-      <c r="E66" s="23"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E66" s="21"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>7</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>92</v>
+      <c r="B67" s="31">
+        <v>475074</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>93</v>
+        <v>586</v>
       </c>
       <c r="D67" s="3">
-        <v>4</v>
-      </c>
-      <c r="E67" s="23"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E67" s="21"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>7</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>94</v>
+      <c r="B68" s="31">
+        <v>531373</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>95</v>
+        <v>585</v>
       </c>
       <c r="D68" s="3">
-        <v>4</v>
-      </c>
-      <c r="E68" s="23"/>
-      <c r="F68">
         <v>7</v>
       </c>
-      <c r="G68" t="s">
-        <v>615</v>
-      </c>
-      <c r="I68" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E68" s="21"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>7</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" s="3">
+      <c r="B69" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D69" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>7</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D70" s="12">
         <v>4</v>
       </c>
-      <c r="F69">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
         <v>7</v>
       </c>
-      <c r="G69" t="s">
-        <v>614</v>
-      </c>
-      <c r="I69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D71" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
+        <v>7</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D72" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>7</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D73" s="12">
         <v>8</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D72" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
-        <v>8</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E73" s="21"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D74" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
-        <v>8</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D75" s="3">
-        <v>6</v>
-      </c>
-      <c r="E75" s="23"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
-        <v>8</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>8</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D77" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>8</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D78" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>8</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D79" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>8</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="3">
+        <v>6</v>
+      </c>
+      <c r="E80" s="21"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
+      <c r="A81" s="6">
+        <v>8</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D82" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D83" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D84" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
-        <v>9</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D85" s="3">
-        <v>4</v>
-      </c>
+      <c r="A85" s="8"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
-        <v>9</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D86" s="3">
-        <v>5</v>
-      </c>
+      <c r="A86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>9</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D87" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3558,13 +3428,13 @@
         <v>9</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D88" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3572,36 +3442,52 @@
         <v>9</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D89" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
+      <c r="A90" s="6">
+        <v>9</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D90" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
+      <c r="A91" s="6">
+        <v>9</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D92" s="3">
         <v>12</v>
@@ -3609,72 +3495,56 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D93" s="3">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D94" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
-        <v>10</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D95" s="3">
-        <v>1</v>
-      </c>
+      <c r="A95" s="8"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
-        <v>10</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D96" s="3">
-        <v>1</v>
-      </c>
+      <c r="A96" s="8"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>10</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D97" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3682,13 +3552,13 @@
         <v>10</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D98" s="3">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3696,13 +3566,13 @@
         <v>10</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D99" s="3">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3710,10 +3580,10 @@
         <v>10</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D100" s="3">
         <v>1</v>
@@ -3724,13 +3594,13 @@
         <v>10</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D101" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3738,10 +3608,10 @@
         <v>10</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="D102" s="3">
         <v>1</v>
@@ -3752,13 +3622,13 @@
         <v>10</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D103" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3766,110 +3636,110 @@
         <v>10</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D104" s="3">
-        <v>6</v>
-      </c>
-      <c r="E104" s="23"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>10</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D105" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
+      <c r="A106" s="6">
+        <v>10</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
+      <c r="A107" s="6">
+        <v>10</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D107" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D108" s="3">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E108" s="21"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D109" s="3">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="6">
-        <v>11</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D110" s="3">
-        <v>7</v>
-      </c>
+      <c r="A110" s="8"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="6">
-        <v>11</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D111" s="3">
-        <v>4</v>
-      </c>
+      <c r="A111" s="8"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>11</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D112" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3877,13 +3747,13 @@
         <v>11</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="D113" s="3">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3891,110 +3761,140 @@
         <v>11</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="D114" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
+      <c r="A115" s="6">
+        <v>11</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D115" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
+      <c r="A116" s="6">
+        <v>11</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
-        <v>12</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D117" s="12">
+        <v>11</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D117" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
+        <v>11</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D118" s="3">
         <v>12</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D118" s="12">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <v>12</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>12</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D122" s="12">
         <v>2</v>
       </c>
-      <c r="E118" s="23"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="6">
-        <v>12</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D119" s="12">
-        <v>24</v>
-      </c>
-      <c r="E119" s="23"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="6">
-        <v>12</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D120" s="12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
+      <c r="E122" s="21"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
-        <v>13</v>
-      </c>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D123" s="12">
+        <v>24</v>
+      </c>
+      <c r="E123" s="21"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
-      <c r="B124" s="9"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
+      <c r="A124" s="6">
+        <v>12</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D124" s="12">
+        <v>34</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
@@ -4003,88 +3903,59 @@
       <c r="D125" s="9"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="6">
-        <v>14</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D126" s="12">
-        <v>4</v>
-      </c>
+      <c r="A126" s="8"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="17">
-        <v>14</v>
-      </c>
-      <c r="B127" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D127" s="19">
-        <v>0</v>
-      </c>
+      <c r="A127" s="6">
+        <v>13</v>
+      </c>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="D127" s="4"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="6">
-        <v>14</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D128" s="12">
-        <v>8</v>
-      </c>
+      <c r="A128" s="8"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="6">
-        <v>14</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D129" s="12">
-        <v>6</v>
-      </c>
-      <c r="E129" s="23"/>
+      <c r="A129" s="8"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>14</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D130" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="6">
+      <c r="A131" s="16">
         <v>14</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D131" s="12">
-        <v>12</v>
+      <c r="B131" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D131" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -4092,13 +3963,13 @@
         <v>14</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D132" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -4106,27 +3977,28 @@
         <v>14</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D133" s="12">
-        <v>24</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E133" s="21"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>14</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="D134" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4134,13 +4006,13 @@
         <v>14</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D135" s="12">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4148,10 +4020,10 @@
         <v>14</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D136" s="12">
         <v>10</v>
@@ -4162,13 +4034,13 @@
         <v>14</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D137" s="12">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4176,53 +4048,69 @@
         <v>14</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="D138" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="8"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
+      <c r="A139" s="6">
+        <v>14</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D139" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
+      <c r="A140" s="6">
+        <v>14</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D140" s="12">
+        <v>10</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D141" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="30">
-        <v>15</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="6">
+        <v>14</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D142" s="4">
-        <v>7</v>
+        <v>115</v>
+      </c>
+      <c r="D142" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4239,19 +4127,31 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
-        <v>16</v>
-      </c>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="12"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="6">
-        <v>16</v>
-      </c>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D145" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="25">
+        <v>15</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D146" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
@@ -4267,89 +4167,68 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
-        <v>17</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>200</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B149" s="11"/>
       <c r="C149" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D149" s="19">
-        <v>0</v>
-      </c>
-      <c r="E149" s="23"/>
+        <v>588</v>
+      </c>
+      <c r="D149" s="12"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="6">
-        <v>17</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D150" s="12">
-        <v>6</v>
-      </c>
-      <c r="E150" s="23"/>
+      <c r="A150" s="8"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="6">
-        <v>17</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D151" s="12">
-        <v>2</v>
-      </c>
+      <c r="A151" s="8"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>17</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D152" s="19">
+        <v>191</v>
+      </c>
+      <c r="D152" s="18">
         <v>0</v>
       </c>
-      <c r="E152" s="23"/>
+      <c r="E152" s="21"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>17</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="D153" s="12">
         <v>6</v>
       </c>
+      <c r="E153" s="21"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>17</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D154" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -4357,39 +4236,56 @@
         <v>17</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D155" s="12">
-        <v>3</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D155" s="18">
+        <v>0</v>
+      </c>
+      <c r="E155" s="21"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="8"/>
-      <c r="B156" s="9"/>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
+      <c r="A156" s="6">
+        <v>17</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D156" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="8"/>
-      <c r="B157" s="9"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
+      <c r="A157" s="6">
+        <v>17</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D157" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>17</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D158" s="12">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4406,59 +4302,42 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D161" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="6">
-        <v>18</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D162" s="12">
-        <v>12</v>
-      </c>
-      <c r="E162" s="23"/>
+      <c r="A162" s="8"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="6">
-        <v>18</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D163" s="12">
-        <v>1</v>
-      </c>
+      <c r="A163" s="8"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>18</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D164" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -4466,27 +4345,28 @@
         <v>18</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C165" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D165" s="12">
         <v>12</v>
       </c>
-      <c r="D165" s="12">
-        <v>8</v>
-      </c>
+      <c r="E165" s="21"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>18</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="D166" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -4494,13 +4374,13 @@
         <v>18</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D167" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -4508,13 +4388,13 @@
         <v>18</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="D168" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -4522,13 +4402,13 @@
         <v>18</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D169" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4536,81 +4416,81 @@
         <v>18</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D170" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="8"/>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
+      <c r="A171" s="6">
+        <v>18</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D171" s="12">
+        <v>9</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="8"/>
-      <c r="B172" s="9"/>
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
+      <c r="A172" s="6">
+        <v>18</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D172" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D173" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="6">
-        <v>19</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="D174" s="12">
-        <v>6</v>
-      </c>
+      <c r="A174" s="8"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="6">
-        <v>19</v>
-      </c>
-      <c r="B175" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D175" s="12">
-        <v>10</v>
-      </c>
+      <c r="A175" s="8"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>19</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D176" s="12">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4618,13 +4498,13 @@
         <v>19</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="D177" s="12">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -4632,81 +4512,81 @@
         <v>19</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="D178" s="12">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="8"/>
-      <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
+      <c r="A179" s="6">
+        <v>19</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D179" s="12">
+        <v>10</v>
+      </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="8"/>
-      <c r="B180" s="9"/>
-      <c r="C180" s="9"/>
-      <c r="D180" s="9"/>
+      <c r="A180" s="6">
+        <v>19</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D180" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>236</v>
+        <v>39</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="D181" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="6">
-        <v>20</v>
-      </c>
-      <c r="B182" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D182" s="12">
-        <v>7</v>
-      </c>
+      <c r="A182" s="8"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="6">
-        <v>20</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D183" s="12">
-        <v>4</v>
-      </c>
+      <c r="A183" s="8"/>
+      <c r="B183" s="9"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>20</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D184" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -4714,84 +4594,81 @@
         <v>20</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D185" s="12">
-        <v>6</v>
-      </c>
-      <c r="E185" s="23"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>20</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D186" s="19">
-        <v>0</v>
-      </c>
-      <c r="E186" s="23"/>
+        <v>229</v>
+      </c>
+      <c r="D186" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>20</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D187" s="19">
-        <v>0</v>
-      </c>
-      <c r="E187" s="23"/>
+        <v>231</v>
+      </c>
+      <c r="D187" s="12">
+        <v>8</v>
+      </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>20</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>245</v>
+        <v>26</v>
       </c>
       <c r="D188" s="12">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E188" s="21"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>20</v>
       </c>
-      <c r="B189" s="16">
-        <v>690207551041</v>
+      <c r="B189" s="11" t="s">
+        <v>232</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="D189" s="19">
-        <v>0</v>
-      </c>
-      <c r="E189" s="23"/>
+        <v>233</v>
+      </c>
+      <c r="D189" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>20</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D190" s="12">
         <v>2</v>
@@ -4802,10 +4679,10 @@
         <v>20</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D191" s="12">
         <v>3</v>
@@ -4816,10 +4693,10 @@
         <v>20</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D192" s="12">
         <v>12</v>
@@ -4842,10 +4719,10 @@
         <v>21</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D195" s="12">
         <v>6</v>
@@ -4856,10 +4733,10 @@
         <v>21</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D196" s="12">
         <v>8</v>
@@ -4870,10 +4747,10 @@
         <v>21</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D197" s="12">
         <v>2</v>
@@ -4884,10 +4761,10 @@
         <v>21</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D198" s="12">
         <v>6</v>
@@ -4898,10 +4775,10 @@
         <v>21</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D199" s="12">
         <v>24</v>
@@ -4912,10 +4789,10 @@
         <v>21</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D200" s="12">
         <v>6</v>
@@ -4926,10 +4803,10 @@
         <v>21</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D201" s="12">
         <v>10</v>
@@ -4940,25 +4817,25 @@
         <v>21</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D202" s="12">
         <v>21</v>
       </c>
-      <c r="E202" s="23"/>
+      <c r="E202" s="21"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>21</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D203" s="12">
         <v>16</v>
@@ -4969,10 +4846,10 @@
         <v>21</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D204" s="12">
         <v>24</v>
@@ -4983,10 +4860,10 @@
         <v>21</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D205" s="12">
         <v>12</v>
@@ -4997,10 +4874,10 @@
         <v>21</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D206" s="12">
         <v>24</v>
@@ -5011,15 +4888,15 @@
         <v>21</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D207" s="12">
         <v>12</v>
       </c>
-      <c r="E207" s="23"/>
+      <c r="E207" s="21"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
@@ -5038,10 +4915,10 @@
         <v>22</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D210" s="12">
         <v>4</v>
@@ -5052,10 +4929,10 @@
         <v>22</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D211" s="12">
         <v>6</v>
@@ -5066,10 +4943,10 @@
         <v>22</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D212" s="12">
         <v>15</v>
@@ -5080,10 +4957,10 @@
         <v>22</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D213" s="12">
         <v>30</v>
@@ -5094,10 +4971,10 @@
         <v>22</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D214" s="12">
         <v>6</v>
@@ -5108,10 +4985,10 @@
         <v>22</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D215" s="12">
         <v>8</v>
@@ -5122,10 +4999,10 @@
         <v>22</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D216" s="12">
         <v>12</v>
@@ -5136,10 +5013,10 @@
         <v>22</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D217" s="12">
         <v>24</v>
@@ -5150,10 +5027,10 @@
         <v>22</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D218" s="12">
         <v>8</v>
@@ -5164,10 +5041,10 @@
         <v>22</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D219" s="12">
         <v>12</v>
@@ -5181,22 +5058,22 @@
         <v>690207531324</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D220" s="12">
         <v>9</v>
       </c>
-      <c r="E220" s="23"/>
+      <c r="E220" s="21"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>22</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D221" s="12">
         <v>12</v>
@@ -5207,10 +5084,10 @@
         <v>22</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D222" s="12">
         <v>12</v>
@@ -5233,10 +5110,10 @@
         <v>23</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D225" s="12">
         <v>48</v>
@@ -5259,10 +5136,10 @@
         <v>24</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D228" s="12">
         <v>5</v>
@@ -5287,10 +5164,10 @@
         <v>24</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D230" s="12">
         <v>5</v>
@@ -5301,10 +5178,10 @@
         <v>24</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D231" s="12">
         <v>6</v>
@@ -5315,15 +5192,15 @@
         <v>24</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D232" s="12">
         <v>12</v>
       </c>
-      <c r="E232" s="23"/>
+      <c r="E232" s="21"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
@@ -5342,10 +5219,10 @@
         <v>25</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="D235" s="12">
         <v>4</v>
@@ -5356,10 +5233,10 @@
         <v>25</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D236" s="12">
         <v>7</v>
@@ -5370,10 +5247,10 @@
         <v>25</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D237" s="12">
         <v>8</v>
@@ -5392,281 +5269,266 @@
       <c r="D239" s="9"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="30">
+      <c r="A240" s="25">
         <v>26</v>
       </c>
-      <c r="B240" s="32">
+      <c r="B240" s="27">
         <v>544612</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>618</v>
+        <v>581</v>
       </c>
       <c r="D240" s="12">
         <v>57</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="30">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="25">
         <v>26</v>
       </c>
-      <c r="B241" s="32">
+      <c r="B241" s="27">
         <v>506673</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D241" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="9"/>
-      <c r="C242" s="31"/>
-      <c r="D242" s="31"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C242" s="26"/>
+      <c r="D242" s="26"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
         <v>27</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="D244" s="12">
         <v>40</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
         <v>27</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="D245" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
         <v>27</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D246" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>27</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D247" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>27</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="D248" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="8"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="8"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>28</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>14</v>
+        <v>314</v>
       </c>
       <c r="D251" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
         <v>28</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D252" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
         <v>28</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>239</v>
+        <v>318</v>
       </c>
       <c r="D253" s="12">
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>28</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D254" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
         <v>28</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D255" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="6">
-        <v>28</v>
-      </c>
-      <c r="B256" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="C256" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="D256" s="12">
-        <v>4</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E255" s="21"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="8"/>
+      <c r="B256" s="9"/>
+      <c r="C256" s="9"/>
+      <c r="D256" s="9"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A257" s="6">
-        <v>28</v>
-      </c>
-      <c r="B257" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="C257" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="D257" s="12">
-        <v>8</v>
-      </c>
+      <c r="A257" s="8"/>
+      <c r="B257" s="9"/>
+      <c r="C257" s="9"/>
+      <c r="D257" s="9"/>
+      <c r="G257" s="11"/>
+      <c r="H257" s="11"/>
+      <c r="I257" s="12"/>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>333</v>
+        <v>186</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>334</v>
+        <v>187</v>
       </c>
       <c r="D258" s="12">
-        <v>10</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G258" s="11"/>
+      <c r="H258" s="11"/>
+      <c r="I258" s="12"/>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>336</v>
+        <v>163</v>
       </c>
       <c r="D259" s="12">
-        <v>6</v>
-      </c>
-      <c r="E259" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="G259" s="29"/>
+      <c r="H259" s="29"/>
+      <c r="I259" s="30"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>337</v>
+        <v>188</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>338</v>
+        <v>189</v>
       </c>
       <c r="D260" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A261" s="6">
-        <v>28</v>
-      </c>
-      <c r="B261" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="C261" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="D261" s="12">
-        <v>8</v>
-      </c>
+      <c r="A261" s="8"/>
+      <c r="B261" s="9"/>
+      <c r="C261" s="9"/>
+      <c r="D261" s="9"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="8"/>
@@ -5675,487 +5537,502 @@
       <c r="D262" s="9"/>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A263" s="8"/>
-      <c r="B263" s="9"/>
-      <c r="C263" s="9"/>
-      <c r="D263" s="9"/>
-      <c r="G263" s="11"/>
-      <c r="H263" s="11"/>
-      <c r="I263" s="12"/>
+      <c r="A263" s="6">
+        <v>30</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C263" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D263" s="12">
+        <v>20</v>
+      </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>196</v>
+        <v>325</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>197</v>
+        <v>326</v>
       </c>
       <c r="D264" s="12">
-        <v>4</v>
-      </c>
-      <c r="G264" s="11"/>
-      <c r="H264" s="11"/>
-      <c r="I264" s="12"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>172</v>
+        <v>327</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>173</v>
+        <v>328</v>
       </c>
       <c r="D265" s="12">
-        <v>1</v>
-      </c>
-      <c r="G265" s="34"/>
-      <c r="H265" s="34"/>
-      <c r="I265" s="35"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>198</v>
+        <v>329</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>199</v>
+        <v>330</v>
       </c>
       <c r="D266" s="12">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E266" s="21"/>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A267" s="8"/>
-      <c r="B267" s="9"/>
-      <c r="C267" s="9"/>
-      <c r="D267" s="9"/>
+      <c r="A267" s="6">
+        <v>30</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C267" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D267" s="12">
+        <v>24</v>
+      </c>
+      <c r="E267" s="21"/>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A268" s="8"/>
-      <c r="B268" s="9"/>
-      <c r="C268" s="9"/>
-      <c r="D268" s="9"/>
+      <c r="A268" s="6">
+        <v>30</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C268" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D268" s="12">
+        <v>8</v>
+      </c>
+      <c r="E268" s="21"/>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>30</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D269" s="12">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" s="6">
-        <v>30</v>
-      </c>
-      <c r="B270" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C270" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="D270" s="12">
-        <v>24</v>
-      </c>
+      <c r="A270" s="8"/>
+      <c r="B270" s="9"/>
+      <c r="C270" s="9"/>
+      <c r="D270" s="9"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" s="6">
-        <v>30</v>
-      </c>
-      <c r="B271" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C271" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D271" s="12">
-        <v>8</v>
-      </c>
+      <c r="A271" s="8"/>
+      <c r="B271" s="9"/>
+      <c r="C271" s="9"/>
+      <c r="D271" s="9"/>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>348</v>
+        <v>107</v>
       </c>
       <c r="D272" s="12">
-        <v>12</v>
-      </c>
-      <c r="E272" s="23"/>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>60</v>
+        <v>335</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>61</v>
+        <v>336</v>
       </c>
       <c r="D273" s="12">
-        <v>24</v>
-      </c>
-      <c r="E273" s="23"/>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="D274" s="12">
-        <v>8</v>
-      </c>
-      <c r="E274" s="23"/>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="D275" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="8"/>
-      <c r="B276" s="9"/>
-      <c r="C276" s="9"/>
-      <c r="D276" s="9"/>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="6">
+        <v>31</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C276" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D276" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="8"/>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
       <c r="D277" s="9"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="6">
-        <v>31</v>
-      </c>
-      <c r="B278" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C278" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D278" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="8"/>
+      <c r="B278" s="9"/>
+      <c r="C278" s="9"/>
+      <c r="D278" s="9"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="D279" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="6">
+        <v>32</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C280" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D280" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="6">
+        <v>32</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C281" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D281" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="6">
+        <v>32</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C282" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D282" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="6">
-        <v>31</v>
-      </c>
-      <c r="B280" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C280" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="D280" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="6">
-        <v>31</v>
-      </c>
-      <c r="B281" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="C281" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="D281" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="6">
-        <v>31</v>
-      </c>
-      <c r="B282" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="C282" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="D282" s="12">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="6">
+        <v>32</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C283" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="8"/>
-      <c r="B283" s="9"/>
-      <c r="C283" s="9"/>
-      <c r="D283" s="9"/>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="8"/>
-      <c r="B284" s="9"/>
-      <c r="C284" s="9"/>
-      <c r="D284" s="9"/>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D283" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="6">
+        <v>32</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C284" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D284" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
         <v>32</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D285" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
         <v>32</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D286" s="12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
         <v>32</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D287" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
         <v>32</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D288" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="6">
-        <v>32</v>
-      </c>
-      <c r="B289" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C289" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D289" s="12">
-        <v>1</v>
-      </c>
+      <c r="A289" s="8"/>
+      <c r="B289" s="9"/>
+      <c r="C289" s="9"/>
+      <c r="D289" s="9"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="6">
-        <v>32</v>
-      </c>
-      <c r="B290" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C290" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="D290" s="12">
-        <v>1</v>
-      </c>
+      <c r="A290" s="8"/>
+      <c r="B290" s="9"/>
+      <c r="C290" s="9"/>
+      <c r="D290" s="9"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>369</v>
+        <v>198</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>370</v>
+        <v>199</v>
       </c>
       <c r="D291" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D292" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="8"/>
+      <c r="B293" s="9"/>
+      <c r="C293" s="9"/>
+      <c r="D293" s="9"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="8"/>
+      <c r="B294" s="9"/>
+      <c r="C294" s="9"/>
+      <c r="D294" s="9"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="6">
+        <v>34</v>
+      </c>
+      <c r="B295" s="11">
+        <v>690306388725</v>
+      </c>
+      <c r="C295" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="D295" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="6">
-        <v>32</v>
-      </c>
-      <c r="B293" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="C293" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="D293" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="6">
-        <v>32</v>
-      </c>
-      <c r="B294" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="C294" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="D294" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="8"/>
-      <c r="B295" s="9"/>
-      <c r="C295" s="9"/>
-      <c r="D295" s="9"/>
-    </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="8"/>
-      <c r="B296" s="9"/>
-      <c r="C296" s="9"/>
-      <c r="D296" s="9"/>
+      <c r="A296" s="6">
+        <v>34</v>
+      </c>
+      <c r="B296" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C296" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="D296" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="D297" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>377</v>
+        <v>106</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>378</v>
+        <v>107</v>
       </c>
       <c r="D298" s="12">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="8"/>
-      <c r="B299" s="9"/>
-      <c r="C299" s="9"/>
-      <c r="D299" s="9"/>
+      <c r="A299" s="6">
+        <v>34</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C299" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D299" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="8"/>
-      <c r="B300" s="9"/>
-      <c r="C300" s="9"/>
-      <c r="D300" s="9"/>
+      <c r="A300" s="6">
+        <v>34</v>
+      </c>
+      <c r="B300" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C300" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="D300" s="12">
+        <v>8</v>
+      </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
         <v>34</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D301" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
         <v>34</v>
       </c>
-      <c r="B302" s="11" t="s">
-        <v>381</v>
+      <c r="B302" s="11">
+        <v>690306483897</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D302" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6163,10 +6040,10 @@
         <v>34</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>84</v>
+        <v>372</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>85</v>
+        <v>373</v>
       </c>
       <c r="D303" s="12">
         <v>1</v>
@@ -6177,432 +6054,434 @@
         <v>34</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>114</v>
+        <v>374</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>115</v>
+        <v>375</v>
       </c>
       <c r="D304" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
         <v>34</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D305" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
         <v>34</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D306" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
         <v>34</v>
       </c>
       <c r="B307" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C307" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D307" s="12">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="8"/>
+      <c r="B308" s="9"/>
+      <c r="C308" s="9"/>
+      <c r="D308" s="9"/>
+    </row>
+    <row r="309" spans="1:5" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A309" s="8">
+        <v>35</v>
+      </c>
+      <c r="B309" s="9"/>
+      <c r="C309" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="D309" s="9"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="22">
+        <v>35</v>
+      </c>
+      <c r="B310" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C310" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D310" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="22">
+        <v>35</v>
+      </c>
+      <c r="B311" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C311" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D311" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="22">
+        <v>35</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C312" s="11" t="s">
         <v>387</v>
-      </c>
-      <c r="C307" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="D307" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" s="6">
-        <v>34</v>
-      </c>
-      <c r="B308" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="C308" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="D308" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" s="6">
-        <v>34</v>
-      </c>
-      <c r="B309" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C309" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="D309" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="6">
-        <v>34</v>
-      </c>
-      <c r="B310" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="C310" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="D310" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" s="6">
-        <v>34</v>
-      </c>
-      <c r="B311" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="C311" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="D311" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="6">
-        <v>34</v>
-      </c>
-      <c r="B312" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="C312" s="11" t="s">
-        <v>398</v>
       </c>
       <c r="D312" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" s="6">
-        <v>34</v>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="22">
+        <v>35</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>399</v>
+        <v>252</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>400</v>
+        <v>253</v>
       </c>
       <c r="D313" s="12">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" s="8"/>
-      <c r="B314" s="9"/>
-      <c r="C314" s="9"/>
-      <c r="D314" s="9"/>
-    </row>
-    <row r="315" spans="1:4" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="E313" s="21"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="22">
+        <v>35</v>
+      </c>
+      <c r="B314" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C314" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D314" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="8"/>
       <c r="B315" s="9"/>
-      <c r="C315" s="27" t="s">
-        <v>617</v>
-      </c>
+      <c r="C315" s="9"/>
       <c r="D315" s="9"/>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" s="26">
-        <v>35</v>
-      </c>
-      <c r="B316" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="C316" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="D316" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" s="26">
-        <v>35</v>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="8"/>
+      <c r="B316" s="9"/>
+      <c r="C316" s="9"/>
+      <c r="D316" s="9"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="6">
+        <v>36</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C317" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="D317" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" s="26">
-        <v>35</v>
+        <v>391</v>
+      </c>
+      <c r="D317" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="6">
+        <v>36</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="D318" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" s="26">
-        <v>35</v>
+        <v>344</v>
+      </c>
+      <c r="D318" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="6">
+        <v>36</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>405</v>
+        <v>268</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>406</v>
+        <v>269</v>
       </c>
       <c r="D319" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" s="26">
-        <v>35</v>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="6">
+        <v>36</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="D320" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="26">
-        <v>35</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="6">
+        <v>36</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="D321" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="26">
-        <v>35</v>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="6">
+        <v>36</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>264</v>
+        <v>396</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>265</v>
+        <v>397</v>
       </c>
       <c r="D322" s="12">
-        <v>11</v>
-      </c>
-      <c r="E322" s="23"/>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="26">
-        <v>35</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="6">
+        <v>36</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="D323" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="26">
-        <v>35</v>
+        <v>399</v>
+      </c>
+      <c r="D323" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="6">
+        <v>36</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>413</v>
+        <v>94</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="D324" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="26">
-        <v>35</v>
+        <v>95</v>
+      </c>
+      <c r="D324" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="6">
+        <v>36</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D325" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="26">
-        <v>35</v>
+        <v>401</v>
+      </c>
+      <c r="D325" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="6">
+        <v>36</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D326" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="8"/>
-      <c r="B327" s="9"/>
-      <c r="C327" s="9"/>
-      <c r="D327" s="9"/>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="8"/>
-      <c r="B328" s="9"/>
-      <c r="C328" s="9"/>
-      <c r="D328" s="9"/>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="6">
+        <v>36</v>
+      </c>
+      <c r="B327" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C327" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="D327" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="6">
+        <v>36</v>
+      </c>
+      <c r="B328" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C328" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="D328" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
         <v>36</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D329" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
         <v>36</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="D330" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
         <v>36</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>280</v>
+        <v>412</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>281</v>
+        <v>413</v>
       </c>
       <c r="D331" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
         <v>36</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D332" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="6">
         <v>36</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D333" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
         <v>36</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D334" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
         <v>36</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D335" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
         <v>36</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>102</v>
+        <v>422</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>103</v>
+        <v>423</v>
       </c>
       <c r="D336" s="12">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -6610,13 +6489,13 @@
         <v>36</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D337" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -6624,13 +6503,13 @@
         <v>36</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D338" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -6638,307 +6517,292 @@
         <v>36</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>433</v>
+        <v>39</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>434</v>
+        <v>40</v>
       </c>
       <c r="D339" s="12">
-        <v>16</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E339" s="21"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="6">
-        <v>36</v>
-      </c>
-      <c r="B340" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="C340" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="D340" s="12">
-        <v>25</v>
-      </c>
+      <c r="A340" s="8"/>
+      <c r="B340" s="9"/>
+      <c r="C340" s="9"/>
+      <c r="D340" s="9"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="6">
-        <v>36</v>
-      </c>
-      <c r="B341" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="C341" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="D341" s="12">
-        <v>12</v>
-      </c>
+      <c r="A341" s="8"/>
+      <c r="B341" s="9"/>
+      <c r="C341" s="9"/>
+      <c r="D341" s="9"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C342" s="11" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D342" s="12">
-        <v>20</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E342" s="21"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D343" s="12">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D344" s="12">
         <v>12</v>
       </c>
+      <c r="E344" s="21"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>446</v>
+        <v>43</v>
       </c>
       <c r="D345" s="12">
-        <v>12</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E345" s="21"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="D346" s="12">
-        <v>24</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E346" s="21"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D347" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="D348" s="12">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="D349" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="D350" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>43</v>
+        <v>365</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>44</v>
+        <v>366</v>
       </c>
       <c r="D351" s="12">
-        <v>6</v>
-      </c>
-      <c r="E351" s="23"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="8"/>
-      <c r="B352" s="9"/>
-      <c r="C352" s="9"/>
-      <c r="D352" s="9"/>
+      <c r="A352" s="6">
+        <v>37</v>
+      </c>
+      <c r="B352" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C352" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D352" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="8"/>
-      <c r="B353" s="9"/>
-      <c r="C353" s="9"/>
-      <c r="D353" s="9"/>
+      <c r="A353" s="6">
+        <v>37</v>
+      </c>
+      <c r="B353" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="C353" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D353" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
         <v>37</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D354" s="12">
-        <v>1</v>
-      </c>
-      <c r="E354" s="23"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
         <v>37</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>459</v>
+        <v>170</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>460</v>
+        <v>171</v>
       </c>
       <c r="D355" s="12">
-        <v>23</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E355" s="21"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="6">
-        <v>37</v>
-      </c>
-      <c r="B356" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="C356" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="D356" s="12">
-        <v>12</v>
-      </c>
-      <c r="E356" s="23"/>
+      <c r="A356" s="8"/>
+      <c r="B356" s="9"/>
+      <c r="C356" s="9"/>
+      <c r="D356" s="9"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="6">
-        <v>37</v>
-      </c>
-      <c r="B357" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C357" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D357" s="12">
-        <v>2</v>
-      </c>
-      <c r="E357" s="23"/>
+      <c r="A357" s="8"/>
+      <c r="B357" s="9"/>
+      <c r="C357" s="9"/>
+      <c r="D357" s="9"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D358" s="12">
-        <v>7</v>
-      </c>
-      <c r="E358" s="23"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>466</v>
+        <v>77</v>
       </c>
       <c r="D359" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="D360" s="12">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="D361" s="12">
         <v>1</v>
@@ -6946,502 +6810,502 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="D362" s="12">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>383</v>
+        <v>456</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>384</v>
+        <v>457</v>
       </c>
       <c r="D363" s="12">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E363" s="21"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>286</v>
+        <v>108</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>287</v>
+        <v>109</v>
       </c>
       <c r="D364" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>473</v>
+        <v>367</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>474</v>
+        <v>368</v>
       </c>
       <c r="D365" s="12">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>475</v>
+        <v>367</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>476</v>
+        <v>368</v>
       </c>
       <c r="D366" s="12">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>180</v>
+        <v>458</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>181</v>
+        <v>459</v>
       </c>
       <c r="D367" s="12">
-        <v>11</v>
-      </c>
-      <c r="E367" s="23"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="8"/>
-      <c r="B368" s="9"/>
-      <c r="C368" s="9"/>
-      <c r="D368" s="9"/>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="8"/>
-      <c r="B369" s="9"/>
-      <c r="C369" s="9"/>
-      <c r="D369" s="9"/>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="6">
+        <v>38</v>
+      </c>
+      <c r="B368" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C368" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="D368" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="6">
+        <v>38</v>
+      </c>
+      <c r="B369" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C369" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D369" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="6">
         <v>38</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D370" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="6">
         <v>38</v>
       </c>
-      <c r="B371" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="C371" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="D371" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B371" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C371" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="D371" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="6">
         <v>38</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>83</v>
+        <v>467</v>
       </c>
       <c r="D372" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="6">
         <v>38</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>479</v>
+        <v>357</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>480</v>
+        <v>358</v>
       </c>
       <c r="D373" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="6">
-        <v>38</v>
-      </c>
-      <c r="B374" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="C374" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="D374" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="6">
-        <v>38</v>
-      </c>
-      <c r="B375" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="C375" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="D375" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="8"/>
+      <c r="B374" s="9"/>
+      <c r="C374" s="9"/>
+      <c r="D374" s="9"/>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="8"/>
+      <c r="B375" s="9"/>
+      <c r="C375" s="9"/>
+      <c r="D375" s="9"/>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>485</v>
+        <v>192</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>486</v>
+        <v>193</v>
       </c>
       <c r="D376" s="12">
-        <v>6</v>
-      </c>
-      <c r="E376" s="23"/>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B377" s="11" t="s">
-        <v>116</v>
+        <v>394</v>
       </c>
       <c r="C377" s="11" t="s">
-        <v>117</v>
+        <v>395</v>
       </c>
       <c r="D377" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B378" s="11" t="s">
-        <v>385</v>
+        <v>468</v>
       </c>
       <c r="C378" s="11" t="s">
-        <v>386</v>
+        <v>469</v>
       </c>
       <c r="D378" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="6">
+        <v>39</v>
+      </c>
+      <c r="B379" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C379" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="D379" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="6">
+        <v>39</v>
+      </c>
+      <c r="B380" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C380" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="D380" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="6">
+        <v>39</v>
+      </c>
+      <c r="B381" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C381" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="D381" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="6">
+        <v>39</v>
+      </c>
+      <c r="B382" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="C382" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="D382" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="8"/>
+      <c r="B383" s="9"/>
+      <c r="C383" s="9"/>
+      <c r="D383" s="9"/>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="8"/>
+      <c r="B384" s="9"/>
+      <c r="C384" s="9"/>
+      <c r="D384" s="9"/>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="6">
+        <v>40</v>
+      </c>
+      <c r="B385" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C385" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D385" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="6">
+        <v>40</v>
+      </c>
+      <c r="B386" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="C386" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="D386" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="6">
-        <v>38</v>
-      </c>
-      <c r="B379" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="C379" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="D379" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="6">
-        <v>38</v>
-      </c>
-      <c r="B380" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="C380" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="D380" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="6">
-        <v>38</v>
-      </c>
-      <c r="B381" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="C381" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="D381" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="6">
-        <v>38</v>
-      </c>
-      <c r="B382" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="C382" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="D382" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="6">
-        <v>38</v>
-      </c>
-      <c r="B383" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="C383" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="D383" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="6">
-        <v>38</v>
-      </c>
-      <c r="B384" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="C384" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="D384" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="6">
-        <v>38</v>
-      </c>
-      <c r="B385" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="C385" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="D385" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="6">
-        <v>38</v>
-      </c>
-      <c r="B386" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="C386" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="D386" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="8"/>
-      <c r="B387" s="9"/>
-      <c r="C387" s="9"/>
-      <c r="D387" s="9"/>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="6">
+        <v>40</v>
+      </c>
+      <c r="B387" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C387" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="D387" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="8"/>
       <c r="B388" s="9"/>
       <c r="C388" s="9"/>
       <c r="D388" s="9"/>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="6">
-        <v>39</v>
-      </c>
-      <c r="B389" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="C389" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D389" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="8"/>
+      <c r="B389" s="9"/>
+      <c r="C389" s="9"/>
+      <c r="D389" s="9"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="6">
-        <v>39</v>
-      </c>
-      <c r="B390" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="C390" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="D390" s="12">
+        <v>41</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D390" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="6">
+        <v>41</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D391" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="6">
+        <v>41</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D392" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="6">
-        <v>39</v>
-      </c>
-      <c r="B391" s="11" t="s">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="6">
+        <v>41</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D393" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="6">
+        <v>41</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D394" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="6">
+        <v>41</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D395" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="6">
+        <v>41</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D396" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="6">
+        <v>41</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D397" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="6">
+        <v>41</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D398" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="6">
+        <v>41</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D399" s="3">
+        <v>6</v>
+      </c>
+      <c r="E399" s="21"/>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="6">
+        <v>41</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C400" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C391" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="D391" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" s="6">
-        <v>39</v>
-      </c>
-      <c r="B392" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="C392" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="D392" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" s="6">
-        <v>39</v>
-      </c>
-      <c r="B393" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="C393" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="D393" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" s="6">
-        <v>39</v>
-      </c>
-      <c r="B394" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="C394" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="D394" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="6">
-        <v>39</v>
-      </c>
-      <c r="B395" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C395" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="D395" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="8"/>
-      <c r="B396" s="9"/>
-      <c r="C396" s="9"/>
-      <c r="D396" s="9"/>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="8"/>
-      <c r="B397" s="9"/>
-      <c r="C397" s="9"/>
-      <c r="D397" s="9"/>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="6">
-        <v>40</v>
-      </c>
-      <c r="B398" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C398" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D398" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="6">
-        <v>40</v>
-      </c>
-      <c r="B399" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="C399" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="D399" s="12">
+      <c r="D400" s="3">
         <v>12</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="6">
-        <v>40</v>
-      </c>
-      <c r="B400" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="C400" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="D400" s="12">
-        <v>4</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -7458,83 +7322,85 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="D403" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>513</v>
+        <v>226</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>514</v>
+        <v>227</v>
       </c>
       <c r="D404" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="D405" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>381</v>
+        <v>42</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>382</v>
+        <v>43</v>
       </c>
       <c r="D406" s="3">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E406" s="21"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D407" s="3">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E407" s="21"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="D408" s="3">
         <v>1</v>
@@ -7542,99 +7408,114 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D409" s="3">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>118</v>
+        <v>438</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>119</v>
+        <v>439</v>
       </c>
       <c r="D410" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>522</v>
+        <v>370</v>
       </c>
       <c r="D411" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="D412" s="3">
-        <v>6</v>
-      </c>
-      <c r="E412" s="23"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="D413" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" s="8"/>
-      <c r="B414" s="9"/>
-      <c r="C414" s="9"/>
-      <c r="D414" s="9"/>
+      <c r="A414" s="6">
+        <v>42</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D414" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" s="8"/>
-      <c r="B415" s="9"/>
-      <c r="C415" s="9"/>
-      <c r="D415" s="9"/>
+      <c r="A415" s="6">
+        <v>42</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D415" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="6">
         <v>42</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>527</v>
+        <v>357</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>528</v>
+        <v>358</v>
       </c>
       <c r="D416" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -7642,13 +7523,13 @@
         <v>42</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="D417" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -7656,13 +7537,13 @@
         <v>42</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="D418" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -7670,43 +7551,41 @@
         <v>42</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="D419" s="3">
-        <v>6</v>
-      </c>
-      <c r="E419" s="23"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="6">
         <v>42</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D420" s="3">
         <v>4</v>
       </c>
-      <c r="E420" s="23"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="6">
         <v>42</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="D421" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -7714,27 +7593,28 @@
         <v>42</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="D422" s="3">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E422" s="21"/>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="6">
         <v>42</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="D423" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -7742,13 +7622,13 @@
         <v>42</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>387</v>
+        <v>520</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>388</v>
+        <v>521</v>
       </c>
       <c r="D424" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -7756,13 +7636,13 @@
         <v>42</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="D425" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -7770,912 +7650,719 @@
         <v>42</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="D426" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" s="6">
-        <v>42</v>
-      </c>
-      <c r="B427" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D427" s="3">
-        <v>6</v>
-      </c>
+      <c r="A427" s="8"/>
+      <c r="B427" s="9"/>
+      <c r="C427" s="9"/>
+      <c r="D427" s="9"/>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="6">
-        <v>42</v>
-      </c>
-      <c r="B428" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D428" s="3">
-        <v>1</v>
-      </c>
+      <c r="A428" s="8"/>
+      <c r="B428" s="9"/>
+      <c r="C428" s="9"/>
+      <c r="D428" s="9"/>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="6">
-        <v>42</v>
-      </c>
-      <c r="B429" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D429" s="3">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="B429" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="C429" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="D429" s="15">
+        <v>9</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="6">
-        <v>42</v>
-      </c>
-      <c r="B430" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D430" s="3">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="B430" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="C430" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="D430" s="15">
+        <v>16</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="6">
-        <v>42</v>
-      </c>
-      <c r="B431" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="D431" s="3">
+        <v>43</v>
+      </c>
+      <c r="B431" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C431" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D431" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="6">
-        <v>42</v>
-      </c>
-      <c r="B432" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D432" s="3">
+        <v>43</v>
+      </c>
+      <c r="B432" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="C432" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="D432" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="6">
-        <v>42</v>
-      </c>
-      <c r="B433" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D433" s="3">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="B433" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="C433" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="D433" s="15">
+        <v>5</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="6">
-        <v>42</v>
-      </c>
-      <c r="B434" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D434" s="3">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="B434" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="C434" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="D434" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="6">
-        <v>42</v>
-      </c>
-      <c r="B435" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="D435" s="3">
+        <v>43</v>
+      </c>
+      <c r="B435" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C435" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D435" s="15">
         <v>1</v>
       </c>
-      <c r="E435" s="23"/>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="6">
-        <v>42</v>
-      </c>
-      <c r="B436" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D436" s="3">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="B436" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="C436" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="D436" s="15">
+        <v>15</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="6">
-        <v>42</v>
-      </c>
-      <c r="B437" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D437" s="3">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="B437" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C437" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="D437" s="15">
+        <v>4</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="6">
-        <v>42</v>
-      </c>
-      <c r="B438" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C438" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D438" s="3">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="B438" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="C438" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="D438" s="15">
+        <v>4</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
-        <v>42</v>
-      </c>
-      <c r="B439" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D439" s="3">
-        <v>9</v>
+        <v>43</v>
+      </c>
+      <c r="B439" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="C439" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="D439" s="15">
+        <v>17</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" s="8"/>
-      <c r="B440" s="9"/>
-      <c r="C440" s="9"/>
-      <c r="D440" s="9"/>
+      <c r="A440" s="6">
+        <v>43</v>
+      </c>
+      <c r="B440" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="C440" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="D440" s="15">
+        <v>15</v>
+      </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="8"/>
-      <c r="B441" s="9"/>
-      <c r="C441" s="9"/>
-      <c r="D441" s="9"/>
+      <c r="A441" s="6">
+        <v>43</v>
+      </c>
+      <c r="B441" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="C441" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="D441" s="15">
+        <v>7</v>
+      </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="6">
         <v>43</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="C442" s="14" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="D442" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" s="6">
-        <v>43</v>
-      </c>
-      <c r="B443" s="14" t="s">
-        <v>557</v>
-      </c>
-      <c r="C443" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="D443" s="15">
-        <v>16</v>
-      </c>
+      <c r="A443" s="8"/>
+      <c r="B443" s="9"/>
+      <c r="C443" s="9"/>
+      <c r="D443" s="9"/>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="6">
-        <v>43</v>
-      </c>
-      <c r="B444" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C444" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D444" s="15">
-        <v>1</v>
-      </c>
+      <c r="A444" s="8"/>
+      <c r="B444" s="9"/>
+      <c r="C444" s="9"/>
+      <c r="D444" s="9"/>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="C445" s="14" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="D445" s="15">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E445" s="13"/>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>533</v>
+        <v>192</v>
       </c>
       <c r="C446" s="14" t="s">
-        <v>534</v>
+        <v>193</v>
       </c>
       <c r="D446" s="15">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E446" s="13"/>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="C447" s="14" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="D447" s="15">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E447" s="13"/>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B448" s="14" t="s">
-        <v>114</v>
+        <v>550</v>
       </c>
       <c r="C448" s="14" t="s">
-        <v>115</v>
+        <v>551</v>
       </c>
       <c r="D448" s="15">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E448" s="13"/>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B449" s="14" t="s">
-        <v>563</v>
+        <v>196</v>
       </c>
       <c r="C449" s="14" t="s">
-        <v>564</v>
+        <v>197</v>
       </c>
       <c r="D449" s="15">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E449" s="13"/>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B450" s="14" t="s">
-        <v>387</v>
+        <v>552</v>
       </c>
       <c r="C450" s="14" t="s">
-        <v>388</v>
+        <v>553</v>
       </c>
       <c r="D450" s="15">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E450" s="13"/>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B451" s="14" t="s">
-        <v>565</v>
+        <v>11</v>
       </c>
       <c r="C451" s="14" t="s">
-        <v>566</v>
+        <v>12</v>
       </c>
       <c r="D451" s="15">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E451" s="13"/>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B452" s="14" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C452" s="14" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="D452" s="15">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E452" s="13"/>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B453" s="14" t="s">
-        <v>569</v>
+        <v>276</v>
       </c>
       <c r="C453" s="14" t="s">
-        <v>570</v>
+        <v>277</v>
       </c>
       <c r="D453" s="15">
-        <v>15</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E453" s="13"/>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B454" s="14" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="C454" s="14" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="D454" s="15">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E454" s="13"/>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B455" s="14" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="C455" s="14" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="D455" s="15">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E455" s="13"/>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456" s="8"/>
-      <c r="B456" s="9"/>
-      <c r="C456" s="9"/>
-      <c r="D456" s="9"/>
+      <c r="A456" s="6">
+        <v>44</v>
+      </c>
+      <c r="B456" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C456" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="D456" s="15">
+        <v>2</v>
+      </c>
+      <c r="E456" s="13"/>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" s="8"/>
-      <c r="B457" s="9"/>
-      <c r="C457" s="9"/>
-      <c r="D457" s="9"/>
+      <c r="A457" s="6">
+        <v>44</v>
+      </c>
+      <c r="B457" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="C457" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="D457" s="15">
+        <v>16</v>
+      </c>
+      <c r="E457" s="13"/>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458" s="6">
-        <v>44</v>
-      </c>
-      <c r="B458" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="C458" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="D458" s="15">
-        <v>6</v>
-      </c>
-      <c r="E458" s="13"/>
+      <c r="A458" s="8"/>
+      <c r="B458" s="9"/>
+      <c r="C458" s="9"/>
+      <c r="D458" s="9"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459" s="6">
-        <v>44</v>
-      </c>
-      <c r="B459" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C459" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D459" s="15">
-        <v>3</v>
-      </c>
-      <c r="E459" s="13"/>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460" s="6">
-        <v>44</v>
-      </c>
-      <c r="B460" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="C460" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="D460" s="15">
-        <v>6</v>
-      </c>
-      <c r="E460" s="13"/>
+      <c r="A459" s="8"/>
+      <c r="B459" s="9"/>
+      <c r="C459" s="9"/>
+      <c r="D459" s="9"/>
+    </row>
+    <row r="460" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="32">
+        <v>45</v>
+      </c>
+      <c r="B460" s="33"/>
+      <c r="C460" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="D460" s="34"/>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461" s="6">
-        <v>44</v>
-      </c>
-      <c r="B461" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="C461" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="D461" s="15">
-        <v>8</v>
-      </c>
-      <c r="E461" s="13"/>
+      <c r="A461" s="8"/>
+      <c r="B461" s="9"/>
+      <c r="C461" s="9"/>
+      <c r="D461" s="9"/>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="6">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B462" s="14" t="s">
-        <v>206</v>
+        <v>566</v>
       </c>
       <c r="C462" s="14" t="s">
-        <v>207</v>
+        <v>567</v>
       </c>
       <c r="D462" s="15">
-        <v>1</v>
-      </c>
-      <c r="E462" s="13"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="6">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B463" s="14" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="C463" s="14" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="D463" s="15">
-        <v>1</v>
-      </c>
-      <c r="E463" s="13"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="6">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B464" s="14" t="s">
-        <v>11</v>
+        <v>570</v>
       </c>
       <c r="C464" s="14" t="s">
-        <v>12</v>
+        <v>571</v>
       </c>
       <c r="D464" s="15">
-        <v>1</v>
-      </c>
-      <c r="E464" s="13"/>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="6">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B465" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C465" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="D465" s="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" s="8"/>
+      <c r="B466" s="9"/>
+      <c r="C466" s="9"/>
+      <c r="D466" s="9"/>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" s="8"/>
+      <c r="B467" s="9"/>
+      <c r="C467" s="9"/>
+      <c r="D467" s="9"/>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" s="6">
+        <v>48</v>
+      </c>
+      <c r="B468" s="27">
+        <v>367577</v>
+      </c>
+      <c r="C468" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D468" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="6">
+        <v>48</v>
+      </c>
+      <c r="B469" s="27">
+        <v>453407</v>
+      </c>
+      <c r="C469" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C465" s="14" t="s">
+      <c r="D469" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="6">
+        <v>48</v>
+      </c>
+      <c r="B470" s="27">
+        <v>530027</v>
+      </c>
+      <c r="C470" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D465" s="15">
-        <v>1</v>
-      </c>
-      <c r="E465" s="13"/>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" s="6">
-        <v>44</v>
-      </c>
-      <c r="B466" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C466" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="D466" s="15">
-        <v>3</v>
-      </c>
-      <c r="E466" s="13"/>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A467" s="6">
-        <v>44</v>
-      </c>
-      <c r="B467" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="C467" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="D467" s="15">
-        <v>6</v>
-      </c>
-      <c r="E467" s="13"/>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" s="6">
-        <v>44</v>
-      </c>
-      <c r="B468" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="C468" s="14" t="s">
-        <v>588</v>
-      </c>
-      <c r="D468" s="15">
-        <v>1</v>
-      </c>
-      <c r="E468" s="13"/>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469" s="6">
-        <v>44</v>
-      </c>
-      <c r="B469" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="C469" s="14" t="s">
-        <v>590</v>
-      </c>
-      <c r="D469" s="15">
-        <v>2</v>
-      </c>
-      <c r="E469" s="13"/>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" s="6">
-        <v>44</v>
-      </c>
-      <c r="B470" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="C470" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="D470" s="15">
-        <v>16</v>
-      </c>
-      <c r="E470" s="13"/>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="8"/>
-      <c r="B471" s="9"/>
-      <c r="C471" s="9"/>
-      <c r="D471" s="9"/>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A472" s="8"/>
-      <c r="B472" s="9"/>
-      <c r="C472" s="9"/>
-      <c r="D472" s="9"/>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" s="6">
-        <v>45</v>
-      </c>
-      <c r="B473" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="C473" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="D473" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" s="6">
-        <v>45</v>
-      </c>
-      <c r="B474" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="C474" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="D474" s="15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475" s="6">
-        <v>45</v>
-      </c>
-      <c r="B475" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C475" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="D475" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" s="6">
-        <v>45</v>
-      </c>
-      <c r="B476" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C476" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D476" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477" s="6">
-        <v>45</v>
-      </c>
-      <c r="B477" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C477" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D477" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A478" s="6">
-        <v>45</v>
-      </c>
-      <c r="B478" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="C478" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="D478" s="15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479" s="6">
-        <v>45</v>
-      </c>
-      <c r="B479" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="C479" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="D479" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480" s="6">
-        <v>45</v>
-      </c>
-      <c r="B480" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="C480" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="D480" s="15">
-        <v>6</v>
-      </c>
-      <c r="E480" s="23"/>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" s="6">
-        <v>45</v>
-      </c>
-      <c r="B481" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C481" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="D481" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" s="6">
-        <v>45</v>
-      </c>
-      <c r="B482" s="14" t="s">
-        <v>597</v>
-      </c>
-      <c r="C482" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="D482" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" s="20">
-        <v>45</v>
-      </c>
-      <c r="B483" s="22" t="s">
-        <v>612</v>
-      </c>
-      <c r="C483" s="22" t="s">
-        <v>613</v>
-      </c>
-      <c r="D483" s="21">
-        <v>20</v>
-      </c>
-      <c r="E483" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" s="8"/>
-      <c r="B484" s="9"/>
-      <c r="C484" s="9"/>
-      <c r="D484" s="9"/>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485" s="6">
-        <v>47</v>
-      </c>
-      <c r="B485" s="14" t="s">
-        <v>599</v>
-      </c>
-      <c r="C485" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="D485" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" s="6">
-        <v>47</v>
-      </c>
-      <c r="B486" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C486" s="14" t="s">
-        <v>602</v>
-      </c>
-      <c r="D486" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487" s="6">
-        <v>47</v>
-      </c>
-      <c r="B487" s="14" t="s">
-        <v>603</v>
-      </c>
-      <c r="C487" s="14" t="s">
-        <v>604</v>
-      </c>
-      <c r="D487" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A488" s="6">
-        <v>47</v>
-      </c>
-      <c r="B488" s="14" t="s">
-        <v>605</v>
-      </c>
-      <c r="C488" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="D488" s="15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489" s="8"/>
-      <c r="B489" s="9"/>
-      <c r="C489" s="9"/>
-      <c r="D489" s="9"/>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A490" s="8"/>
-      <c r="B490" s="9"/>
-      <c r="C490" s="9"/>
-      <c r="D490" s="9"/>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491" s="6">
-        <v>48</v>
-      </c>
-      <c r="B491" s="32">
-        <v>367577</v>
-      </c>
-      <c r="C491" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="D491" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" s="6">
-        <v>48</v>
-      </c>
-      <c r="B492" s="32">
-        <v>453407</v>
-      </c>
-      <c r="C492" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="D492" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493" s="6">
-        <v>48</v>
-      </c>
-      <c r="B493" s="32">
-        <v>530027</v>
-      </c>
-      <c r="C493" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="D493" s="4">
+      <c r="D470" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="6"/>
+      <c r="B471" s="4"/>
+      <c r="C471" s="4"/>
+      <c r="D471" s="4"/>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" s="6"/>
+      <c r="B472" s="4"/>
+      <c r="C472" s="4"/>
+      <c r="D472" s="4"/>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" s="6"/>
+      <c r="B473" s="4"/>
+      <c r="C473" s="4"/>
+      <c r="D473" s="4"/>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" s="6"/>
+      <c r="B474" s="4"/>
+      <c r="C474" s="4"/>
+      <c r="D474" s="4"/>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" s="6"/>
+      <c r="B475" s="4"/>
+      <c r="C475" s="4"/>
+      <c r="D475" s="4"/>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="6"/>
+      <c r="B476" s="4"/>
+      <c r="C476" s="4"/>
+      <c r="D476" s="4"/>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="6"/>
+      <c r="B477" s="4"/>
+      <c r="C477" s="4"/>
+      <c r="D477" s="4"/>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="6"/>
+      <c r="B478" s="4"/>
+      <c r="C478" s="4"/>
+      <c r="D478" s="4"/>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="6"/>
+      <c r="B479" s="4"/>
+      <c r="C479" s="4"/>
+      <c r="D479" s="4"/>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="6"/>
+      <c r="B480" s="4"/>
+      <c r="C480" s="4"/>
+      <c r="D480" s="4"/>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" s="6"/>
+      <c r="B481" s="4"/>
+      <c r="C481" s="4"/>
+      <c r="D481" s="4"/>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" s="6"/>
+      <c r="B482" s="4"/>
+      <c r="C482" s="4"/>
+      <c r="D482" s="4"/>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" s="6"/>
+      <c r="B483" s="4"/>
+      <c r="C483" s="4"/>
+      <c r="D483" s="4"/>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" s="6"/>
+      <c r="B484" s="4"/>
+      <c r="C484" s="4"/>
+      <c r="D484" s="4"/>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" s="6"/>
+      <c r="B485" s="4"/>
+      <c r="C485" s="4"/>
+      <c r="D485" s="4"/>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" s="6"/>
+      <c r="B486" s="4"/>
+      <c r="C486" s="4"/>
+      <c r="D486" s="4"/>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" s="6"/>
+      <c r="B487" s="4"/>
+      <c r="C487" s="4"/>
+      <c r="D487" s="4"/>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" s="6"/>
+      <c r="B488" s="4"/>
+      <c r="C488" s="4"/>
+      <c r="D488" s="4"/>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" s="6"/>
+      <c r="B489" s="4"/>
+      <c r="C489" s="4"/>
+      <c r="D489" s="4"/>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" s="6"/>
+      <c r="B490" s="4"/>
+      <c r="C490" s="4"/>
+      <c r="D490" s="4"/>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" s="6"/>
+      <c r="B491" s="4"/>
+      <c r="C491" s="4"/>
+      <c r="D491" s="4"/>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="6"/>
+      <c r="B492" s="4"/>
+      <c r="C492" s="4"/>
+      <c r="D492" s="4"/>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" s="6"/>
+      <c r="B493" s="4"/>
+      <c r="C493" s="4"/>
+      <c r="D493" s="4"/>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="6"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="6"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="6"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -10883,152 +10570,7 @@
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A864" s="6"/>
-      <c r="B864" s="4"/>
-      <c r="C864" s="4"/>
-      <c r="D864" s="4"/>
-    </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A865" s="6"/>
-      <c r="B865" s="4"/>
-      <c r="C865" s="4"/>
-      <c r="D865" s="4"/>
-    </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A866" s="6"/>
-      <c r="B866" s="4"/>
-      <c r="C866" s="4"/>
-      <c r="D866" s="4"/>
-    </row>
-    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A867" s="6"/>
-      <c r="B867" s="4"/>
-      <c r="C867" s="4"/>
-      <c r="D867" s="4"/>
-    </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A868" s="6"/>
-      <c r="B868" s="4"/>
-      <c r="C868" s="4"/>
-      <c r="D868" s="4"/>
-    </row>
-    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A869" s="6"/>
-      <c r="B869" s="4"/>
-      <c r="C869" s="4"/>
-      <c r="D869" s="4"/>
-    </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A870" s="6"/>
-      <c r="B870" s="4"/>
-      <c r="C870" s="4"/>
-      <c r="D870" s="4"/>
-    </row>
-    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A871" s="6"/>
-      <c r="B871" s="4"/>
-      <c r="C871" s="4"/>
-      <c r="D871" s="4"/>
-    </row>
-    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A872" s="6"/>
-      <c r="B872" s="4"/>
-      <c r="C872" s="4"/>
-      <c r="D872" s="4"/>
-    </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A873" s="6"/>
-      <c r="B873" s="4"/>
-      <c r="C873" s="4"/>
-      <c r="D873" s="4"/>
-    </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A874" s="6"/>
-      <c r="B874" s="4"/>
-      <c r="C874" s="4"/>
-      <c r="D874" s="4"/>
-    </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A875" s="6"/>
-      <c r="B875" s="4"/>
-      <c r="C875" s="4"/>
-      <c r="D875" s="4"/>
-    </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A876" s="6"/>
-      <c r="B876" s="4"/>
-      <c r="C876" s="4"/>
-      <c r="D876" s="4"/>
-    </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A877" s="6"/>
-      <c r="B877" s="4"/>
-      <c r="C877" s="4"/>
-      <c r="D877" s="4"/>
-    </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A878" s="6"/>
-      <c r="B878" s="4"/>
-      <c r="C878" s="4"/>
-      <c r="D878" s="4"/>
-    </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A879" s="6"/>
-      <c r="B879" s="4"/>
-      <c r="C879" s="4"/>
-      <c r="D879" s="4"/>
-    </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A880" s="6"/>
-      <c r="B880" s="4"/>
-      <c r="C880" s="4"/>
-      <c r="D880" s="4"/>
-    </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A881" s="6"/>
-      <c r="B881" s="4"/>
-      <c r="C881" s="4"/>
-      <c r="D881" s="4"/>
-    </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A882" s="6"/>
-      <c r="B882" s="4"/>
-      <c r="C882" s="4"/>
-      <c r="D882" s="4"/>
-    </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A883" s="6"/>
-      <c r="B883" s="4"/>
-      <c r="C883" s="4"/>
-      <c r="D883" s="4"/>
-    </row>
-    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A884" s="6"/>
-      <c r="B884" s="4"/>
-      <c r="C884" s="4"/>
-      <c r="D884" s="4"/>
-    </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A885" s="6"/>
-      <c r="B885" s="4"/>
-      <c r="C885" s="4"/>
-      <c r="D885" s="4"/>
-    </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A886" s="6"/>
-      <c r="B886" s="4"/>
-      <c r="C886" s="4"/>
-      <c r="D886" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D22">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="690606434368"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
